--- a/VIATURAS.xlsx
+++ b/VIATURAS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>MARCA</t>
   </si>
@@ -586,7 +586,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +659,7 @@
       <c r="F3" s="3">
         <v>38482</v>
       </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -760,9 +761,7 @@
       <c r="F8" s="3">
         <v>44592</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -823,6 +822,7 @@
       <c r="F11" s="3">
         <v>42495</v>
       </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1107,11 +1107,10 @@
     <sortCondition ref="A2:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G15:G19" r:id="rId2" display="fernandocunha3344@gmail.com"/>
+    <hyperlink ref="G15:G19" r:id="rId1" display="fernandocunha3344@gmail.com"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/VIATURAS.xlsx
+++ b/VIATURAS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\VIATURAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E226E19-330A-4AD9-ADC9-1C5DFE37793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -192,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +273,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,21 +578,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +698,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="3">
-        <v>43879</v>
+        <v>43969</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>52</v>
@@ -733,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="3">
-        <v>38488</v>
+        <v>38853</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
@@ -814,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <v>36790</v>
+        <v>36667</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>52</v>
@@ -1103,11 +1109,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
     <sortCondition ref="A2:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G15:G19" r:id="rId1" display="fernandocunha3344@gmail.com"/>
+    <hyperlink ref="G15:G19" r:id="rId1" display="fernandocunha3344@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VIATURAS.xlsx
+++ b/VIATURAS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\VIATURAS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E226E19-330A-4AD9-ADC9-1C5DFE37793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -198,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +267,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,21 +572,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1073,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="3">
-        <v>43223</v>
+        <v>43247</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
@@ -1109,11 +1103,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
+  <sortState ref="A2:G24">
     <sortCondition ref="A2:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G15:G19" r:id="rId1" display="fernandocunha3344@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G15:G19" r:id="rId1" display="fernandocunha3344@gmail.com"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VIATURAS.xlsx
+++ b/VIATURAS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\VIATURAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC60D4-842B-4521-A79D-C0BF03F08FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>MARCA</t>
   </si>
@@ -180,10 +186,19 @@
     <t>Passageiros</t>
   </si>
   <si>
+    <t>portatil1@guimadiesel.pt</t>
+  </si>
+  <si>
+    <t>antoniosa@guimadiesel.pt</t>
+  </si>
+  <si>
+    <t>fernandocunha@guimadiesel.pt</t>
+  </si>
+  <si>
+    <t>pedropontes@guimadiesel.pt</t>
+  </si>
+  <si>
     <t>DATA REVISAO</t>
-  </si>
-  <si>
-    <t>fernandocunha3344@gmail.com</t>
   </si>
   <si>
     <t>EMAIL</t>
@@ -192,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +282,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,21 +587,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,10 +629,10 @@
         <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -637,7 +652,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="3">
-        <v>44921</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,9 +672,8 @@
         <v>51</v>
       </c>
       <c r="F3" s="3">
-        <v>38482</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>45313</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -678,7 +692,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="3">
-        <v>39140</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,13 +706,13 @@
         <v>42</v>
       </c>
       <c r="D5" s="3">
-        <v>43969</v>
+        <v>43879</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="3">
-        <v>37237</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,7 +732,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="3">
-        <v>37023</v>
+        <v>45365</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -733,13 +747,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="3">
-        <v>38853</v>
+        <v>38488</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="3">
-        <v>44074</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,9 +773,11 @@
         <v>52</v>
       </c>
       <c r="F8" s="3">
-        <v>44592</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>45086</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -780,7 +796,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="3">
-        <v>37237</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -800,7 +816,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="3">
-        <v>39478</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,15 +830,14 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <v>36667</v>
+        <v>36790</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="3">
-        <v>42495</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>42538</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -841,7 +856,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="3">
-        <v>44286</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,7 +876,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="3">
-        <v>43817</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -881,7 +896,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="3">
-        <v>42955</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -901,10 +916,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="3">
-        <v>42697</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,7 +936,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="3">
-        <v>36243</v>
+        <v>45323</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>54</v>
@@ -947,10 +959,10 @@
         <v>52</v>
       </c>
       <c r="F17" s="3">
-        <v>37916</v>
+        <v>45110</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,10 +982,10 @@
         <v>52</v>
       </c>
       <c r="F18" s="3">
-        <v>37663</v>
+        <v>45160</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,10 +1005,10 @@
         <v>52</v>
       </c>
       <c r="F19" s="3">
-        <v>36790</v>
+        <v>45202</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1016,9 +1028,11 @@
         <v>52</v>
       </c>
       <c r="F20" s="3">
-        <v>40927</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>45272</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1037,9 +1051,11 @@
         <v>52</v>
       </c>
       <c r="F21" s="3">
-        <v>39574</v>
-      </c>
-      <c r="G21" s="6"/>
+        <v>45323</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1058,9 +1074,11 @@
         <v>52</v>
       </c>
       <c r="F22" s="3">
-        <v>43879</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>45288</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1073,13 +1091,13 @@
         <v>44</v>
       </c>
       <c r="D23" s="3">
-        <v>43247</v>
+        <v>43223</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="3">
-        <v>39478</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,18 +1117,25 @@
         <v>52</v>
       </c>
       <c r="F24" s="3">
-        <v>39140</v>
+        <v>45124</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
     <sortCondition ref="A2:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G15:G19" r:id="rId1" display="fernandocunha3344@gmail.com"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/VIATURAS.xlsx
+++ b/VIATURAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\VIATURAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC60D4-842B-4521-A79D-C0BF03F08FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B894D9CB-E4E5-494F-97A0-BEC91904B2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -393,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="3">
-        <v>38488</v>
+        <v>38512</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
